--- a/source/source_spreadsheets/DEQM_Capability_Statement_Receiver_Server.xlsx
+++ b/source/source_spreadsheets/DEQM_Capability_Statement_Receiver_Server.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\source\capstat_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6847694-F310-49D3-8F08-A6C00DC9E3B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BECD89-8AB3-45E8-BA19-22EBCC8C0BB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="765" yWindow="555" windowWidth="28035" windowHeight="17445" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
@@ -298,9 +298,6 @@
 </t>
   </si>
   <si>
-    <t>This profile defines the expected capabilities of a Da Vinci DEQM Receiver Server when conforming to the Da Vinci DEQM Implementation Guide. Receivers include systems that are primary receivers of Measure data such as payers as well as public health and other healthcare-related agencies.  This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that are  Da Vinci DEQM Receiver Server could support. Servers have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
     <t>The DaVinci DEQM Receiver Server **SHALL** be capable of supporting the DEQM Summary MeasureReport Profile and  DEQM Individual MeasureReport Profile and all the DEQM and QI Core Profiles they reference.</t>
   </si>
   <si>
@@ -317,6 +314,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/cqfmeasures</t>
+  </si>
+  <si>
+    <t>This profile defines the expected capabilities of a Da Vinci DEQM Receiver Server when conforming to the Da Vinci DEQM Implementation Guide. Receivers include systems that are primary receivers of Measure data such as payers as well as public health and other healthcare-related agencies.  This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that a Da Vinci DEQM Receiver Server could support. Servers have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
   </si>
 </sst>
 </file>
@@ -692,7 +692,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +714,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -788,15 +788,15 @@
         <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1109,7 +1109,7 @@
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
